--- a/public/api.xlsx
+++ b/public/api.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\likesapi\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\getlikes\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Path</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>{"success": true, "token": &lt;token&gt;, "data": {"id": &lt;id&gt;, "username": &lt;username&gt;, "coin": &lt;coin&gt;, "membership": &lt;membership&gt;}}</t>
+  </si>
+  <si>
+    <t>{"order_id": &lt;id of order&gt;}</t>
   </si>
 </sst>
 </file>
@@ -458,16 +461,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="32.25" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,6 +593,9 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
